--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_shipbuilding_marine.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_shipbuilding_marine.xlsx
@@ -590,23 +590,26 @@
           <t>Shipbuilding &amp; Marine</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.492</v>
+      </c>
       <c r="G2">
-        <v>-0.3818840579710145</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="H2">
-        <v>-0.3818840579710145</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="I2">
-        <v>0.2173913043478261</v>
+        <v>-0.3578947368421053</v>
       </c>
       <c r="J2">
-        <v>0.2173913043478261</v>
+        <v>-0.1789473684210526</v>
       </c>
       <c r="K2">
-        <v>-4.15</v>
+        <v>-0.887</v>
       </c>
       <c r="L2">
-        <v>3.007246376811595</v>
+        <v>-9.336842105263157</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,70 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
+        <v>0.002</v>
+      </c>
+      <c r="V2">
+        <v>0.001612903225806452</v>
+      </c>
+      <c r="W2">
+        <v>0.05311377245508982</v>
+      </c>
+      <c r="X2">
+        <v>0.1016586646398268</v>
+      </c>
+      <c r="Y2">
+        <v>-0.04854489218473695</v>
+      </c>
+      <c r="Z2">
+        <v>-0.005707419645539201</v>
+      </c>
+      <c r="AA2">
+        <v>0.001021327726043857</v>
+      </c>
+      <c r="AB2">
+        <v>0.1011801566806405</v>
+      </c>
+      <c r="AC2">
+        <v>-0.1001588289545966</v>
+      </c>
+      <c r="AD2">
+        <v>0.017</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0.017</v>
+      </c>
+      <c r="AG2">
+        <v>0.015</v>
+      </c>
+      <c r="AH2">
+        <v>0.01352426412092283</v>
+      </c>
+      <c r="AI2">
+        <v>-0.0009613753322400046</v>
+      </c>
+      <c r="AJ2">
+        <v>0.01195219123505976</v>
+      </c>
+      <c r="AK2">
+        <v>-0.0008481764206955048</v>
+      </c>
+      <c r="AL2">
         <v>0.003</v>
       </c>
-      <c r="V2">
-        <v>0.003194888178913738</v>
-      </c>
-      <c r="W2">
-        <v>0.3346774193548387</v>
-      </c>
-      <c r="X2">
-        <v>0.09783346580759897</v>
-      </c>
-      <c r="Y2">
-        <v>0.2368439535472398</v>
-      </c>
-      <c r="Z2">
-        <v>-0.09767836919592297</v>
-      </c>
-      <c r="AA2">
-        <v>-0.02123442808607021</v>
-      </c>
-      <c r="AB2">
-        <v>0.09566092582296486</v>
-      </c>
-      <c r="AC2">
-        <v>-0.1168953539090351</v>
-      </c>
-      <c r="AD2">
-        <v>0.058</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0.058</v>
-      </c>
-      <c r="AG2">
-        <v>0.055</v>
-      </c>
-      <c r="AH2">
-        <v>0.05817452357071214</v>
-      </c>
-      <c r="AI2">
-        <v>-0.003485158033890158</v>
-      </c>
-      <c r="AJ2">
-        <v>0.05533199195171026</v>
-      </c>
-      <c r="AK2">
-        <v>-0.003304295584259538</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
       <c r="AM2">
-        <v>-0.6919999999999999</v>
+        <v>-0.011</v>
       </c>
       <c r="AN2">
-        <v>-0.90625</v>
+        <v>-1.416666666666667</v>
+      </c>
+      <c r="AO2">
+        <v>-11.33333333333333</v>
       </c>
       <c r="AP2">
-        <v>-0.859375</v>
+        <v>-1.25</v>
       </c>
       <c r="AQ2">
-        <v>0.4335260115606936</v>
+        <v>3.090909090909091</v>
       </c>
     </row>
     <row r="3">
@@ -712,23 +718,26 @@
           <t>Shipbuilding &amp; Marine</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.492</v>
+      </c>
       <c r="G3">
-        <v>-0.3818840579710145</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="H3">
-        <v>-0.3818840579710145</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="I3">
-        <v>0.2173913043478261</v>
+        <v>-0.3578947368421053</v>
       </c>
       <c r="J3">
-        <v>0.2173913043478261</v>
+        <v>-0.1789473684210526</v>
       </c>
       <c r="K3">
-        <v>-4.15</v>
+        <v>-0.887</v>
       </c>
       <c r="L3">
-        <v>3.007246376811595</v>
+        <v>-9.336842105263157</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -752,70 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
+        <v>0.002</v>
+      </c>
+      <c r="V3">
+        <v>0.001612903225806452</v>
+      </c>
+      <c r="W3">
+        <v>0.05311377245508982</v>
+      </c>
+      <c r="X3">
+        <v>0.1016586646398268</v>
+      </c>
+      <c r="Y3">
+        <v>-0.04854489218473695</v>
+      </c>
+      <c r="Z3">
+        <v>-0.005707419645539201</v>
+      </c>
+      <c r="AA3">
+        <v>0.001021327726043857</v>
+      </c>
+      <c r="AB3">
+        <v>0.1011801566806405</v>
+      </c>
+      <c r="AC3">
+        <v>-0.1001588289545966</v>
+      </c>
+      <c r="AD3">
+        <v>0.017</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0.017</v>
+      </c>
+      <c r="AG3">
+        <v>0.015</v>
+      </c>
+      <c r="AH3">
+        <v>0.01352426412092283</v>
+      </c>
+      <c r="AI3">
+        <v>-0.0009613753322400046</v>
+      </c>
+      <c r="AJ3">
+        <v>0.01195219123505976</v>
+      </c>
+      <c r="AK3">
+        <v>-0.0008481764206955048</v>
+      </c>
+      <c r="AL3">
         <v>0.003</v>
       </c>
-      <c r="V3">
-        <v>0.003194888178913738</v>
-      </c>
-      <c r="W3">
-        <v>0.3346774193548387</v>
-      </c>
-      <c r="X3">
-        <v>0.09783346580759897</v>
-      </c>
-      <c r="Y3">
-        <v>0.2368439535472398</v>
-      </c>
-      <c r="Z3">
-        <v>-0.09767836919592297</v>
-      </c>
-      <c r="AA3">
-        <v>-0.02123442808607021</v>
-      </c>
-      <c r="AB3">
-        <v>0.09566092582296486</v>
-      </c>
-      <c r="AC3">
-        <v>-0.1168953539090351</v>
-      </c>
-      <c r="AD3">
-        <v>0.058</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0.058</v>
-      </c>
-      <c r="AG3">
-        <v>0.055</v>
-      </c>
-      <c r="AH3">
-        <v>0.05817452357071214</v>
-      </c>
-      <c r="AI3">
-        <v>-0.003485158033890158</v>
-      </c>
-      <c r="AJ3">
-        <v>0.05533199195171026</v>
-      </c>
-      <c r="AK3">
-        <v>-0.003304295584259538</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
       <c r="AM3">
-        <v>-0.6919999999999999</v>
+        <v>-0.011</v>
       </c>
       <c r="AN3">
-        <v>-0.90625</v>
+        <v>-1.416666666666667</v>
+      </c>
+      <c r="AO3">
+        <v>-11.33333333333333</v>
       </c>
       <c r="AP3">
-        <v>-0.859375</v>
+        <v>-1.25</v>
       </c>
       <c r="AQ3">
-        <v>0.4335260115606936</v>
+        <v>3.090909090909091</v>
       </c>
     </row>
   </sheetData>
